--- a/Data/EC/NIT-8904046755.xlsx
+++ b/Data/EC/NIT-8904046755.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D442A6-78B6-4D72-BDA6-B1F67797E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23DF7190-C78A-4885-94E6-5A91C3688483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CCC11F37-5162-457B-B8E1-5BF019DEE640}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{35C420E4-98B1-4162-A5D3-DC8F8A0B665F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,6 +74,93 @@
     <t>1611</t>
   </si>
   <si>
+    <t>1001832675</t>
+  </si>
+  <si>
+    <t>RODOLFO ANTONIO ZUÑIGA MARIMON</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1047423985</t>
+  </si>
+  <si>
+    <t>RAUL ENRIQUE ROMERO ARENAS</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>1047428052</t>
   </si>
   <si>
@@ -83,94 +170,10 @@
     <t>2506</t>
   </si>
   <si>
-    <t>1001832675</t>
-  </si>
-  <si>
-    <t>RODOLFO ANTONIO ZUÑIGA MARIMON</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>1047423985</t>
-  </si>
-  <si>
-    <t>RAUL ENRIQUE ROMERO ARENAS</t>
-  </si>
-  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -269,7 +272,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -282,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -484,23 +487,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,10 +531,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45746AAD-5F6B-3DA2-5151-BC042DE5904B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C76FD6-F143-5CA9-BD3E-1276FA3ED5F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,8 +938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7753D68-704D-43D6-AD9A-70EEF5481D80}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F81917-3E4D-4006-8936-F174D9174EEF}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -960,7 +963,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1005,7 +1008,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1037,12 +1040,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1287355</v>
+        <v>1333755</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1053,17 +1056,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1090,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>50</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1136,10 +1139,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>28470</v>
+        <v>28000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1159,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>28000</v>
+        <v>43307</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1173,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1196,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1219,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1242,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
@@ -1265,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
@@ -1288,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1311,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1334,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1357,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1380,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1403,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1426,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1449,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1472,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1495,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1518,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1541,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1564,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1587,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1610,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1633,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1656,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1679,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1702,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>28470</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1725,10 +1728,10 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>43</v>
@@ -1744,42 +1747,54 @@
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="24">
-        <v>43307</v>
-      </c>
-      <c r="G44" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="F44" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" s="32"/>
       <c r="H50" s="1" t="s">
@@ -1788,12 +1803,23 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H51:J51"/>
     <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
